--- a/SuppXLS/Scen_UC_HeatPumps_MinCAP_Hi.xlsx
+++ b/SuppXLS/Scen_UC_HeatPumps_MinCAP_Hi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU_TIMES_Veda2p0\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1712B9-0854-4B5C-A640-2A7BAB2120B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168C158-5AC2-43D2-A3FC-126077CE4BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25110" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1785" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VDA_table" sheetId="10" r:id="rId1"/>

--- a/SuppXLS/Scen_UC_HeatPumps_MinCAP_Hi.xlsx
+++ b/SuppXLS/Scen_UC_HeatPumps_MinCAP_Hi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168C158-5AC2-43D2-A3FC-126077CE4BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55067D7E-EA0D-4FD3-BAA4-286E29C4F66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1785" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3390" windowWidth="15825" windowHeight="12210" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VDA_table" sheetId="10" r:id="rId1"/>
